--- a/students_template.xlsx
+++ b/students_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdulmajeedalghamdi/Desktop/simple_site_ar/excel_to_site_hash/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A63CD3C-8B96-A84D-A416-5B02BF1B11AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8776E6AB-1C88-5441-9FD3-3F9445F670FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="234">
   <si>
     <t>رقم الهوية</t>
   </si>
@@ -1144,7 +1144,7 @@
   <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2117,6 +2117,24 @@
       <c r="B38" s="4" t="s">
         <v>78</v>
       </c>
+      <c r="C38" s="2">
+        <v>10</v>
+      </c>
+      <c r="D38" s="2">
+        <v>5</v>
+      </c>
+      <c r="E38" s="2">
+        <v>10</v>
+      </c>
+      <c r="F38" s="2">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
@@ -2124,6 +2142,24 @@
       </c>
       <c r="B39" s="4" t="s">
         <v>79</v>
+      </c>
+      <c r="C39" s="2">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2">
+        <v>10</v>
+      </c>
+      <c r="F39" s="2">
+        <v>10</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
